--- a/SignalSync/test documents/testresultaten teensy.xlsx
+++ b/SignalSync/test documents/testresultaten teensy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="783" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="783" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Test 1 met soundboard</t>
   </si>
@@ -41,16 +41,28 @@
     <t>Test0 zonder soundboard</t>
   </si>
   <si>
-    <t>Test 3 smoothed bufferlengte 5</t>
+    <t>Test 3 smoothed median bufferlengte 3</t>
   </si>
   <si>
-    <t>Test 4 smoothed bufferlengte 5</t>
+    <t>Test 3 smoothed average bufferlengte 5</t>
   </si>
   <si>
-    <t>Test 3 smoothed bufferlengte 2</t>
+    <t>Test 3 smoothed average bufferlengte 2</t>
   </si>
   <si>
-    <t>Test 4 smoothed bufferlengte 2</t>
+    <t>Test 4 smoothed average bufferlengte 5</t>
+  </si>
+  <si>
+    <t>Test 4 smoothed average bufferlengte 2</t>
+  </si>
+  <si>
+    <t>Test 3 smoothed average bufferlengte 3</t>
+  </si>
+  <si>
+    <t>Test 3 smoothed median bufferlengte 5</t>
+  </si>
+  <si>
+    <t>Test 3 smoothed median bufferlengte 3 fft buffer 4s step 2s</t>
   </si>
 </sst>
 </file>
@@ -477,6 +489,2173 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1919055986"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Gesmooth median bufferlengte 3 kortere</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> fft buffer</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test 3 smoothed median bufferlengte 3 fft buffer 4s step 2s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$L$2:$L$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="142"/>
+                <c:pt idx="0">
+                  <c:v>-0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.55700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.56299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.56299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.56399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.56499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.56599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.56899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.57099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.57199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.57199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.57399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.57399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.57699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.57699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.58299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.58299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.58399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.58699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.57699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.58699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.57699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.58899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.59099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.59099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.59199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.61599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.60399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.60499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.60499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.60699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.60799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.61</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.61499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.61499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.61499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.61599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.61799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.62</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.62</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.62</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.621</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.627</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.627</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.629</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.63</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.63</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.63</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.63300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.63300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.628</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.628</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.63</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.63</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.63300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.65</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.65</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.65600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.65600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.66</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.66</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.64700000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1621-4681-873F-ADCAC9C2D7C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1342163727"/>
+        <c:axId val="2088024468"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1342163727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2088024468"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2088024468"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-0.5"/>
+          <c:min val="-0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>latency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1342163727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+        <c:minorUnit val="2.0000000000000005E-3"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Vierde keer soundboard referentie gesamplet op 11K</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$E$2:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>-0.186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.215</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.216</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.193</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.222</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.222</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.224</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.248</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.248</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.216</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.217</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.217</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.247</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.252</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0A05-4DBF-A515-44C09904F955}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$E$2:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>-0.186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.215</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.216</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.193</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.222</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.222</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.224</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.248</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.248</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.216</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.217</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.217</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.247</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.252</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0A05-4DBF-A515-44C09904F955}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$E$2:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>-0.186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.215</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.216</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.193</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.222</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.222</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.224</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.248</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.248</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.216</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.217</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.217</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.247</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.252</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0A05-4DBF-A515-44C09904F955}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1342163727"/>
+        <c:axId val="2088024468"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1342163727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2088024468"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2088024468"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-0.1"/>
+          <c:min val="-0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>latency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1342163727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Gesmooth bufferlengte 5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test 4 smoothed average bufferlengte 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$M$2:$M$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>-0.186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.189</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.215</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.218</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.22600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.245</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.248</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.247</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.251</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.254</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.249</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.221</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.217</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.221</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.245</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.247</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.249</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-633C-4037-B0BA-538F628CC6C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1342163727"/>
+        <c:axId val="2088024468"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1342163727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2088024468"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2088024468"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-0.1"/>
+          <c:min val="-0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>latency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1342163727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Gesmooth bufferlengte 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test 4 smoothed average bufferlengte 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$N$2:$N$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>-0.186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.222</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.223</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.22600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.251</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.254</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.246</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.248</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.249</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.216</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.217</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.222</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.246</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.248</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.251</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73B4-407D-9529-A138641F64B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1342163727"/>
+        <c:axId val="2088024468"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1342163727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2088024468"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2088024468"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-0.1"/>
+          <c:min val="-0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>latency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1342163727"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
@@ -3962,7 +6141,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-BE"/>
-              <a:t>Gesmooth bufferlengte 5</a:t>
+              <a:t>Gesmooth average bufferlengte 3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3981,11 +6160,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$G$1</c:f>
+              <c:f>Data!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Test 3 smoothed bufferlengte 5</c:v>
+                  <c:v>Test 3 smoothed average bufferlengte 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4002,10 +6181,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$57</c:f>
+              <c:f>Data!$H$2:$H$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>-0.55700000000000005</c:v>
                 </c:pt>
@@ -4016,10 +6195,10 @@
                   <c:v>-0.55800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.55800000000000005</c:v>
+                  <c:v>-0.55900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.56000000000000005</c:v>
+                  <c:v>-0.56100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-0.55900000000000005</c:v>
@@ -4031,136 +6210,136 @@
                   <c:v>-0.56299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.56499999999999995</c:v>
+                  <c:v>-0.56899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.56699999999999995</c:v>
+                  <c:v>-0.57099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.57099999999999995</c:v>
+                  <c:v>-0.57299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.57299999999999995</c:v>
+                  <c:v>-0.57399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.57399999999999995</c:v>
+                  <c:v>-0.57599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.57599999999999996</c:v>
+                  <c:v>-0.57799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.57799999999999996</c:v>
+                  <c:v>-0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.57999999999999996</c:v>
+                  <c:v>-0.58199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.58199999999999996</c:v>
+                  <c:v>-0.58399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.58399999999999996</c:v>
+                  <c:v>-0.58499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.58599999999999997</c:v>
+                  <c:v>-0.58699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.58699999999999997</c:v>
+                  <c:v>-0.58899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.58899999999999997</c:v>
+                  <c:v>-0.59099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.59099999999999997</c:v>
+                  <c:v>-0.59299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.59299999999999997</c:v>
+                  <c:v>-0.59599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.59499999999999997</c:v>
+                  <c:v>-0.59799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.59699999999999998</c:v>
+                  <c:v>-0.59899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.6</c:v>
+                  <c:v>-0.60099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.60099999999999998</c:v>
+                  <c:v>-0.60299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.60299999999999998</c:v>
+                  <c:v>-0.60499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.60499999999999998</c:v>
+                  <c:v>-0.60599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.60699999999999998</c:v>
+                  <c:v>-0.60799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.60799999999999998</c:v>
+                  <c:v>-0.61</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.61099999999999999</c:v>
+                  <c:v>-0.61299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.61399999999999999</c:v>
+                  <c:v>-0.61699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.61699999999999999</c:v>
+                  <c:v>-0.621</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.621</c:v>
+                  <c:v>-0.625</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.624</c:v>
+                  <c:v>-0.626</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.627</c:v>
+                  <c:v>-0.63</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.629</c:v>
+                  <c:v>-0.63100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.63</c:v>
+                  <c:v>-0.63200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>-0.63100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.63100000000000001</c:v>
+                  <c:v>-0.63</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-0.63</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.63100000000000001</c:v>
+                  <c:v>-0.63200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.63300000000000001</c:v>
+                  <c:v>-0.63400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.63600000000000001</c:v>
+                  <c:v>-0.64</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.63900000000000001</c:v>
+                  <c:v>-0.64300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.64300000000000002</c:v>
+                  <c:v>-0.64800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.64700000000000002</c:v>
+                  <c:v>-0.65</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.65</c:v>
+                  <c:v>-0.65200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.65</c:v>
+                  <c:v>-0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.65100000000000002</c:v>
+                  <c:v>-0.65</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-0.65100000000000002</c:v>
@@ -4169,10 +6348,7 @@
                   <c:v>-0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.65200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-0.65700000000000003</c:v>
+                  <c:v>-0.65400000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4343,7 +6519,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-BE"/>
-              <a:t>Gesmooth bufferlengte 2</a:t>
+              <a:t>Gesmooth average bufferlengte 2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4362,11 +6538,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$H$1</c:f>
+              <c:f>Data!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Test 3 smoothed bufferlengte 2</c:v>
+                  <c:v>Test 3 smoothed average bufferlengte 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4383,7 +6559,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Data!$H$2:$H$57</c:f>
+              <c:f>Data!$I$2:$I$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -4724,7 +6900,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-BE"/>
-              <a:t>Vierde keer soundboard referentie gesamplet op 11K</a:t>
+              <a:t>Gesmooth median bufferlengte 3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4739,8 +6915,19 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test 3 smoothed median bufferlengte 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cmpd="sng">
               <a:solidFill>
@@ -4753,177 +6940,177 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$57</c:f>
+              <c:f>Data!$K$2:$K$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>-0.186</c:v>
+                  <c:v>-0.55700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.19900000000000001</c:v>
+                  <c:v>-0.55700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.20100000000000001</c:v>
+                  <c:v>-0.55900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.20799999999999999</c:v>
+                  <c:v>-0.55900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.20499999999999999</c:v>
+                  <c:v>-0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.20499999999999999</c:v>
+                  <c:v>-0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.20899999999999999</c:v>
+                  <c:v>-0.56399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.20899999999999999</c:v>
+                  <c:v>-0.56599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.21</c:v>
+                  <c:v>-0.56899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.215</c:v>
+                  <c:v>-0.57099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.215</c:v>
+                  <c:v>-0.57399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.216</c:v>
+                  <c:v>-0.57399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.193</c:v>
+                  <c:v>-0.57599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.222</c:v>
+                  <c:v>-0.57699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.222</c:v>
+                  <c:v>-0.58099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.224</c:v>
+                  <c:v>-0.58299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.22700000000000001</c:v>
+                  <c:v>-0.58299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.22700000000000001</c:v>
+                  <c:v>-0.58599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.23100000000000001</c:v>
+                  <c:v>-0.58599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.23100000000000001</c:v>
+                  <c:v>-0.58899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.23300000000000001</c:v>
+                  <c:v>-0.59099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.23599999999999999</c:v>
+                  <c:v>-0.59299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.23599999999999999</c:v>
+                  <c:v>-0.59599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.23899999999999999</c:v>
+                  <c:v>-0.59799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.26300000000000001</c:v>
+                  <c:v>-0.59799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.24399999999999999</c:v>
+                  <c:v>-0.60099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.24399999999999999</c:v>
+                  <c:v>-0.60499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.248</c:v>
+                  <c:v>-0.60499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.248</c:v>
+                  <c:v>-0.60599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.25</c:v>
+                  <c:v>-0.60799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.26300000000000001</c:v>
+                  <c:v>-0.61099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.26200000000000001</c:v>
+                  <c:v>-0.61099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.26200000000000001</c:v>
+                  <c:v>-0.61599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.20899999999999999</c:v>
+                  <c:v>-0.623</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.21</c:v>
+                  <c:v>-0.624</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.20899999999999999</c:v>
+                  <c:v>-0.628</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.216</c:v>
+                  <c:v>-0.628</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.217</c:v>
+                  <c:v>-0.63300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.217</c:v>
+                  <c:v>-0.63300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.22700000000000001</c:v>
+                  <c:v>-0.629</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.22700000000000001</c:v>
+                  <c:v>-0.629</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.24</c:v>
+                  <c:v>-0.629</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.23200000000000001</c:v>
+                  <c:v>-0.63200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.23200000000000001</c:v>
+                  <c:v>-0.63600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.23400000000000001</c:v>
+                  <c:v>-0.63900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.23</c:v>
+                  <c:v>-0.64500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.23400000000000001</c:v>
+                  <c:v>-0.64700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.23400000000000001</c:v>
+                  <c:v>-0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.23699999999999999</c:v>
+                  <c:v>-0.65200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.23899999999999999</c:v>
+                  <c:v>-0.65200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.23899999999999999</c:v>
+                  <c:v>-0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.247</c:v>
+                  <c:v>-0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.24399999999999999</c:v>
+                  <c:v>-0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.252</c:v>
+                  <c:v>-0.65200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.25</c:v>
+                  <c:v>-0.65200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.25</c:v>
+                  <c:v>-0.65800000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4931,401 +7118,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-0A05-4DBF-A515-44C09904F955}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="25400" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="3366CC"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$E$2:$E$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
-                <c:pt idx="0">
-                  <c:v>-0.186</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.19900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.20100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.20799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.20499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.20499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.20899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.20899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.215</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.215</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.216</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.193</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.222</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.222</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.224</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.22700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.22700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.23100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.23100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.23300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.23599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.23599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.23899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.26300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.248</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.248</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.25</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.26300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.26200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.26200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.20899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.21</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.20899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.216</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.217</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.217</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.22700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.22700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.24</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.23200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.23200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.23400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.23</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.23400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.23400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.23699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.23899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-0.23899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-0.247</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.252</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.25</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-0A05-4DBF-A515-44C09904F955}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="25400" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="3366CC"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$E$2:$E$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
-                <c:pt idx="0">
-                  <c:v>-0.186</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.19900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.20100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.20799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.20499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.20499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.20899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.20899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.215</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.215</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.216</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.193</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.222</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.222</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.224</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.22700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.22700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.23100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.23100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.23300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.23599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.23599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.23899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.26300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.248</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.248</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.25</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.26300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.26200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.26200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.20899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.21</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.20899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.216</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.217</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.217</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.22700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.22700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.24</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.23200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.23200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.23400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.23</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.23400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.23400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.23699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.23899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-0.23899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-0.247</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.252</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.25</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0A05-4DBF-A515-44C09904F955}"/>
+              <c16:uniqueId val="{00000000-D0C7-481B-A4D8-B3851B868431}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5388,8 +7181,8 @@
         <c:axId val="2088024468"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="-0.1"/>
-          <c:min val="-0.30000000000000004"/>
+          <c:max val="-0.5"/>
+          <c:min val="-0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5444,6 +7237,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
+        <c:minorUnit val="2.0000000000000005E-3"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -5487,7 +7281,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-BE"/>
-              <a:t>Gesmooth bufferlengte 5</a:t>
+              <a:t>Gesmooth average bufferlengte 5</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5506,11 +7300,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$I$1</c:f>
+              <c:f>Data!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Test 4 smoothed bufferlengte 5</c:v>
+                  <c:v>Test 3 smoothed average bufferlengte 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5527,177 +7321,177 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Data!$I$2:$I$57</c:f>
+              <c:f>Data!$G$2:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>-0.186</c:v>
+                  <c:v>-0.55700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.189</c:v>
+                  <c:v>-0.55800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.192</c:v>
+                  <c:v>-0.55800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.19600000000000001</c:v>
+                  <c:v>-0.55800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.2</c:v>
+                  <c:v>-0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.20399999999999999</c:v>
+                  <c:v>-0.55900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.20599999999999999</c:v>
+                  <c:v>-0.56100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.20699999999999999</c:v>
+                  <c:v>-0.56299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.20799999999999999</c:v>
+                  <c:v>-0.56499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.21</c:v>
+                  <c:v>-0.56699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.21199999999999999</c:v>
+                  <c:v>-0.57099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.21299999999999999</c:v>
+                  <c:v>-0.57299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.21</c:v>
+                  <c:v>-0.57399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.21199999999999999</c:v>
+                  <c:v>-0.57599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.21299999999999999</c:v>
+                  <c:v>-0.57799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.215</c:v>
+                  <c:v>-0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.218</c:v>
+                  <c:v>-0.58199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.22500000000000001</c:v>
+                  <c:v>-0.58399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.22600000000000001</c:v>
+                  <c:v>-0.58599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.22800000000000001</c:v>
+                  <c:v>-0.58699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.23</c:v>
+                  <c:v>-0.58899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.23200000000000001</c:v>
+                  <c:v>-0.59099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.23300000000000001</c:v>
+                  <c:v>-0.59299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.23499999999999999</c:v>
+                  <c:v>-0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.24099999999999999</c:v>
+                  <c:v>-0.59699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.24399999999999999</c:v>
+                  <c:v>-0.6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.245</c:v>
+                  <c:v>-0.60099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.248</c:v>
+                  <c:v>-0.60299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.25</c:v>
+                  <c:v>-0.60499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.247</c:v>
+                  <c:v>-0.60699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.251</c:v>
+                  <c:v>-0.60799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.254</c:v>
+                  <c:v>-0.61099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.25700000000000001</c:v>
+                  <c:v>-0.61399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.249</c:v>
+                  <c:v>-0.61699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.24099999999999999</c:v>
+                  <c:v>-0.621</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.23</c:v>
+                  <c:v>-0.624</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.221</c:v>
+                  <c:v>-0.627</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.21199999999999999</c:v>
+                  <c:v>-0.629</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.21299999999999999</c:v>
+                  <c:v>-0.63</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.217</c:v>
+                  <c:v>-0.63100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.221</c:v>
+                  <c:v>-0.63100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.22500000000000001</c:v>
+                  <c:v>-0.63</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.22800000000000001</c:v>
+                  <c:v>-0.63100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.23200000000000001</c:v>
+                  <c:v>-0.63300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.23300000000000001</c:v>
+                  <c:v>-0.63600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.23400000000000001</c:v>
+                  <c:v>-0.63900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.23200000000000001</c:v>
+                  <c:v>-0.64300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.23300000000000001</c:v>
+                  <c:v>-0.64700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.23400000000000001</c:v>
+                  <c:v>-0.65</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.23499999999999999</c:v>
+                  <c:v>-0.65</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.23699999999999999</c:v>
+                  <c:v>-0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.23899999999999999</c:v>
+                  <c:v>-0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.24099999999999999</c:v>
+                  <c:v>-0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.245</c:v>
+                  <c:v>-0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.247</c:v>
+                  <c:v>-0.65200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.249</c:v>
+                  <c:v>-0.65700000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5705,7 +7499,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-633C-4037-B0BA-538F628CC6C5}"/>
+              <c16:uniqueId val="{00000000-0686-4588-8659-4A458640C7FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5768,8 +7562,8 @@
         <c:axId val="2088024468"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="-0.1"/>
-          <c:min val="-0.30000000000000004"/>
+          <c:max val="-0.5"/>
+          <c:min val="-0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5824,6 +7618,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
+        <c:minorUnit val="2.0000000000000005E-3"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -5867,7 +7662,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-BE"/>
-              <a:t>Gesmooth bufferlengte 2</a:t>
+              <a:t>Gesmooth median bufferlengte 5</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5890,7 +7685,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Test 4 smoothed bufferlengte 2</c:v>
+                  <c:v>Test 3 smoothed median bufferlengte 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5912,172 +7707,172 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>-0.186</c:v>
+                  <c:v>-0.55700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.192</c:v>
+                  <c:v>-0.55700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.2</c:v>
+                  <c:v>-0.55700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.20399999999999999</c:v>
+                  <c:v>-0.55900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.20599999999999999</c:v>
+                  <c:v>-0.55900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.20499999999999999</c:v>
+                  <c:v>-0.55900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.20699999999999999</c:v>
+                  <c:v>-0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.20899999999999999</c:v>
+                  <c:v>-0.56399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.21</c:v>
+                  <c:v>-0.56599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.21299999999999999</c:v>
+                  <c:v>-0.56899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.215</c:v>
+                  <c:v>-0.57099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.215</c:v>
+                  <c:v>-0.57399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.20399999999999999</c:v>
+                  <c:v>-0.57399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.20699999999999999</c:v>
+                  <c:v>-0.57599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.222</c:v>
+                  <c:v>-0.57699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.223</c:v>
+                  <c:v>-0.58099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.22600000000000001</c:v>
+                  <c:v>-0.58299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.22700000000000001</c:v>
+                  <c:v>-0.58299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.22900000000000001</c:v>
+                  <c:v>-0.58599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.23100000000000001</c:v>
+                  <c:v>-0.58599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.23200000000000001</c:v>
+                  <c:v>-0.58899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.23400000000000001</c:v>
+                  <c:v>-0.59099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.23599999999999999</c:v>
+                  <c:v>-0.59299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.23799999999999999</c:v>
+                  <c:v>-0.59599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.251</c:v>
+                  <c:v>-0.59799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.254</c:v>
+                  <c:v>-0.59799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.24399999999999999</c:v>
+                  <c:v>-0.60099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.246</c:v>
+                  <c:v>-0.60499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.248</c:v>
+                  <c:v>-0.60499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.249</c:v>
+                  <c:v>-0.60599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.25600000000000001</c:v>
+                  <c:v>-0.60799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.26200000000000001</c:v>
+                  <c:v>-0.61099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.26200000000000001</c:v>
+                  <c:v>-0.61099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.23599999999999999</c:v>
+                  <c:v>-0.61599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.20899999999999999</c:v>
+                  <c:v>-0.623</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.20899999999999999</c:v>
+                  <c:v>-0.624</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.21199999999999999</c:v>
+                  <c:v>-0.628</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.216</c:v>
+                  <c:v>-0.628</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.217</c:v>
+                  <c:v>-0.629</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.222</c:v>
+                  <c:v>-0.629</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.22700000000000001</c:v>
+                  <c:v>-0.63200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.23300000000000001</c:v>
+                  <c:v>-0.629</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.23599999999999999</c:v>
+                  <c:v>-0.629</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.23200000000000001</c:v>
+                  <c:v>-0.63200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.23300000000000001</c:v>
+                  <c:v>-0.63600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.23200000000000001</c:v>
+                  <c:v>-0.63900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.23200000000000001</c:v>
+                  <c:v>-0.64500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.23400000000000001</c:v>
+                  <c:v>-0.64700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.23499999999999999</c:v>
+                  <c:v>-0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.23799999999999999</c:v>
+                  <c:v>-0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.23899999999999999</c:v>
+                  <c:v>-0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.24299999999999999</c:v>
+                  <c:v>-0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.246</c:v>
+                  <c:v>-0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.248</c:v>
+                  <c:v>-0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.251</c:v>
+                  <c:v>-0.65200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.25</c:v>
+                  <c:v>-0.65200000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6085,7 +7880,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-73B4-407D-9529-A138641F64B2}"/>
+              <c16:uniqueId val="{00000000-5904-4FAB-973F-7A8BC3AF9804}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6148,8 +7943,8 @@
         <c:axId val="2088024468"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="-0.1"/>
-          <c:min val="-0.30000000000000004"/>
+          <c:max val="-0.5"/>
+          <c:min val="-0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6204,6 +7999,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
+        <c:minorUnit val="2.0000000000000005E-3"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -6422,6 +8218,134 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4" title="Diagram"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5" title="Diagram"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6" title="Diagram"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7" title="Diagram"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6794,10 +8718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
-    <sheetView topLeftCell="G32" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="I123" workbookViewId="0">
+      <selection activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6807,12 +8731,16 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" customWidth="1"/>
     <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
-    <col min="9" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6829,19 +8757,31 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>-0.13</v>
       </c>
@@ -6864,13 +8804,25 @@
         <v>-0.55700000000000005</v>
       </c>
       <c r="I2">
+        <v>-0.55700000000000005</v>
+      </c>
+      <c r="J2">
+        <v>-0.55700000000000005</v>
+      </c>
+      <c r="K2">
+        <v>-0.55700000000000005</v>
+      </c>
+      <c r="L2">
+        <v>-0.55500000000000005</v>
+      </c>
+      <c r="M2">
         <v>-0.186</v>
       </c>
-      <c r="J2">
+      <c r="N2">
         <v>-0.186</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>-0.13</v>
       </c>
@@ -6893,13 +8845,25 @@
         <v>-0.55800000000000005</v>
       </c>
       <c r="I3">
+        <v>-0.55800000000000005</v>
+      </c>
+      <c r="J3">
+        <v>-0.55700000000000005</v>
+      </c>
+      <c r="K3">
+        <v>-0.55700000000000005</v>
+      </c>
+      <c r="L3">
+        <v>-0.55500000000000005</v>
+      </c>
+      <c r="M3">
         <v>-0.189</v>
       </c>
-      <c r="J3">
+      <c r="N3">
         <v>-0.192</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>-0.13</v>
       </c>
@@ -6919,16 +8883,28 @@
         <v>-0.55800000000000005</v>
       </c>
       <c r="H4">
+        <v>-0.55800000000000005</v>
+      </c>
+      <c r="I4">
         <v>-0.55900000000000005</v>
       </c>
-      <c r="I4">
+      <c r="J4">
+        <v>-0.55700000000000005</v>
+      </c>
+      <c r="K4">
+        <v>-0.55900000000000005</v>
+      </c>
+      <c r="L4">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="M4">
         <v>-0.192</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>-0.107</v>
       </c>
@@ -6948,16 +8924,28 @@
         <v>-0.55800000000000005</v>
       </c>
       <c r="H5">
+        <v>-0.55900000000000005</v>
+      </c>
+      <c r="I5">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="I5">
+      <c r="J5">
+        <v>-0.55900000000000005</v>
+      </c>
+      <c r="K5">
+        <v>-0.55900000000000005</v>
+      </c>
+      <c r="L5">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="M5">
         <v>-0.19600000000000001</v>
       </c>
-      <c r="J5">
+      <c r="N5">
         <v>-0.20399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>-9.7000000000000003E-2</v>
       </c>
@@ -6977,16 +8965,28 @@
         <v>-0.56000000000000005</v>
       </c>
       <c r="H6">
+        <v>-0.56100000000000005</v>
+      </c>
+      <c r="I6">
         <v>-0.56200000000000006</v>
       </c>
-      <c r="I6">
+      <c r="J6">
+        <v>-0.55900000000000005</v>
+      </c>
+      <c r="K6">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="L6">
+        <v>-0.55700000000000005</v>
+      </c>
+      <c r="M6">
         <v>-0.2</v>
       </c>
-      <c r="J6">
+      <c r="N6">
         <v>-0.20599999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>-9.6000000000000002E-2</v>
       </c>
@@ -7009,13 +9009,25 @@
         <v>-0.55900000000000005</v>
       </c>
       <c r="I7">
+        <v>-0.55900000000000005</v>
+      </c>
+      <c r="J7">
+        <v>-0.55900000000000005</v>
+      </c>
+      <c r="K7">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="L7">
+        <v>-0.55800000000000005</v>
+      </c>
+      <c r="M7">
         <v>-0.20399999999999999</v>
       </c>
-      <c r="J7">
+      <c r="N7">
         <v>-0.20499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>-9.6000000000000002E-2</v>
       </c>
@@ -7035,16 +9047,28 @@
         <v>-0.56100000000000005</v>
       </c>
       <c r="H8">
+        <v>-0.56100000000000005</v>
+      </c>
+      <c r="I8">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="I8">
+      <c r="J8">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="K8">
+        <v>-0.56399999999999995</v>
+      </c>
+      <c r="L8">
+        <v>-0.55900000000000005</v>
+      </c>
+      <c r="M8">
         <v>-0.20599999999999999</v>
       </c>
-      <c r="J8">
+      <c r="N8">
         <v>-0.20699999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>-9.7000000000000003E-2</v>
       </c>
@@ -7064,16 +9088,28 @@
         <v>-0.56299999999999994</v>
       </c>
       <c r="H9">
+        <v>-0.56299999999999994</v>
+      </c>
+      <c r="I9">
         <v>-0.56799999999999995</v>
       </c>
-      <c r="I9">
+      <c r="J9">
+        <v>-0.56399999999999995</v>
+      </c>
+      <c r="K9">
+        <v>-0.56599999999999995</v>
+      </c>
+      <c r="L9">
+        <v>-0.55900000000000005</v>
+      </c>
+      <c r="M9">
         <v>-0.20699999999999999</v>
       </c>
-      <c r="J9">
+      <c r="N9">
         <v>-0.20899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>-9.6000000000000002E-2</v>
       </c>
@@ -7093,16 +9129,28 @@
         <v>-0.56499999999999995</v>
       </c>
       <c r="H10">
+        <v>-0.56899999999999995</v>
+      </c>
+      <c r="I10">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="I10">
+      <c r="J10">
+        <v>-0.56599999999999995</v>
+      </c>
+      <c r="K10">
+        <v>-0.56899999999999995</v>
+      </c>
+      <c r="L10">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="M10">
         <v>-0.20799999999999999</v>
       </c>
-      <c r="J10">
+      <c r="N10">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>-9.6000000000000002E-2</v>
       </c>
@@ -7122,16 +9170,28 @@
         <v>-0.56699999999999995</v>
       </c>
       <c r="H11">
+        <v>-0.57099999999999995</v>
+      </c>
+      <c r="I11">
         <v>-0.57199999999999995</v>
       </c>
-      <c r="I11">
+      <c r="J11">
+        <v>-0.56899999999999995</v>
+      </c>
+      <c r="K11">
+        <v>-0.57099999999999995</v>
+      </c>
+      <c r="L11">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="M11">
         <v>-0.21</v>
       </c>
-      <c r="J11">
+      <c r="N11">
         <v>-0.21299999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>-9.6000000000000002E-2</v>
       </c>
@@ -7151,16 +9211,28 @@
         <v>-0.57099999999999995</v>
       </c>
       <c r="H12">
+        <v>-0.57299999999999995</v>
+      </c>
+      <c r="I12">
         <v>-0.57399999999999995</v>
       </c>
-      <c r="I12">
+      <c r="J12">
+        <v>-0.57099999999999995</v>
+      </c>
+      <c r="K12">
+        <v>-0.57399999999999995</v>
+      </c>
+      <c r="L12">
+        <v>-0.56100000000000005</v>
+      </c>
+      <c r="M12">
         <v>-0.21199999999999999</v>
       </c>
-      <c r="J12">
+      <c r="N12">
         <v>-0.215</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>-9.6000000000000002E-2</v>
       </c>
@@ -7180,16 +9252,28 @@
         <v>-0.57299999999999995</v>
       </c>
       <c r="H13">
+        <v>-0.57399999999999995</v>
+      </c>
+      <c r="I13">
         <v>-0.57499999999999996</v>
       </c>
-      <c r="I13">
+      <c r="J13">
+        <v>-0.57399999999999995</v>
+      </c>
+      <c r="K13">
+        <v>-0.57399999999999995</v>
+      </c>
+      <c r="L13">
+        <v>-0.56200000000000006</v>
+      </c>
+      <c r="M13">
         <v>-0.21299999999999999</v>
       </c>
-      <c r="J13">
+      <c r="N13">
         <v>-0.215</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>-9.6000000000000002E-2</v>
       </c>
@@ -7212,13 +9296,25 @@
         <v>-0.57599999999999996</v>
       </c>
       <c r="I14">
+        <v>-0.57599999999999996</v>
+      </c>
+      <c r="J14">
+        <v>-0.57399999999999995</v>
+      </c>
+      <c r="K14">
+        <v>-0.57599999999999996</v>
+      </c>
+      <c r="L14">
+        <v>-0.56299999999999994</v>
+      </c>
+      <c r="M14">
         <v>-0.21</v>
       </c>
-      <c r="J14">
+      <c r="N14">
         <v>-0.20399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>-9.6000000000000002E-2</v>
       </c>
@@ -7238,16 +9334,28 @@
         <v>-0.57599999999999996</v>
       </c>
       <c r="H15">
+        <v>-0.57799999999999996</v>
+      </c>
+      <c r="I15">
         <v>-0.57899999999999996</v>
       </c>
-      <c r="I15">
+      <c r="J15">
+        <v>-0.57599999999999996</v>
+      </c>
+      <c r="K15">
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="L15">
+        <v>-0.56299999999999994</v>
+      </c>
+      <c r="M15">
         <v>-0.21199999999999999</v>
       </c>
-      <c r="J15">
+      <c r="N15">
         <v>-0.20699999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>-9.5000000000000001E-2</v>
       </c>
@@ -7267,16 +9375,28 @@
         <v>-0.57799999999999996</v>
       </c>
       <c r="H16">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="I16">
         <v>-0.58199999999999996</v>
       </c>
-      <c r="I16">
+      <c r="J16">
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="K16">
+        <v>-0.58099999999999996</v>
+      </c>
+      <c r="L16">
+        <v>-0.56399999999999995</v>
+      </c>
+      <c r="M16">
         <v>-0.21299999999999999</v>
       </c>
-      <c r="J16">
+      <c r="N16">
         <v>-0.222</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>-9.6000000000000002E-2</v>
       </c>
@@ -7296,16 +9416,28 @@
         <v>-0.57999999999999996</v>
       </c>
       <c r="H17">
+        <v>-0.58199999999999996</v>
+      </c>
+      <c r="I17">
         <v>-0.58299999999999996</v>
       </c>
-      <c r="I17">
+      <c r="J17">
+        <v>-0.58099999999999996</v>
+      </c>
+      <c r="K17">
+        <v>-0.58299999999999996</v>
+      </c>
+      <c r="L17">
+        <v>-0.56499999999999995</v>
+      </c>
+      <c r="M17">
         <v>-0.215</v>
       </c>
-      <c r="J17">
+      <c r="N17">
         <v>-0.223</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>-9.7000000000000003E-2</v>
       </c>
@@ -7325,16 +9457,28 @@
         <v>-0.58199999999999996</v>
       </c>
       <c r="H18">
+        <v>-0.58399999999999996</v>
+      </c>
+      <c r="I18">
         <v>-0.58499999999999996</v>
       </c>
-      <c r="I18">
+      <c r="J18">
+        <v>-0.58299999999999996</v>
+      </c>
+      <c r="K18">
+        <v>-0.58299999999999996</v>
+      </c>
+      <c r="L18">
+        <v>-0.56599999999999995</v>
+      </c>
+      <c r="M18">
         <v>-0.218</v>
       </c>
-      <c r="J18">
+      <c r="N18">
         <v>-0.22600000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>-0.10199999999999999</v>
       </c>
@@ -7354,16 +9498,28 @@
         <v>-0.58399999999999996</v>
       </c>
       <c r="H19">
+        <v>-0.58499999999999996</v>
+      </c>
+      <c r="I19">
         <v>-0.58599999999999997</v>
       </c>
-      <c r="I19">
+      <c r="J19">
+        <v>-0.58299999999999996</v>
+      </c>
+      <c r="K19">
+        <v>-0.58599999999999997</v>
+      </c>
+      <c r="L19">
+        <v>-0.56699999999999995</v>
+      </c>
+      <c r="M19">
         <v>-0.22500000000000001</v>
       </c>
-      <c r="J19">
+      <c r="N19">
         <v>-0.22700000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>-0.10100000000000001</v>
       </c>
@@ -7383,16 +9539,28 @@
         <v>-0.58599999999999997</v>
       </c>
       <c r="H20">
+        <v>-0.58699999999999997</v>
+      </c>
+      <c r="I20">
         <v>-0.58799999999999997</v>
       </c>
-      <c r="I20">
+      <c r="J20">
+        <v>-0.58599999999999997</v>
+      </c>
+      <c r="K20">
+        <v>-0.58599999999999997</v>
+      </c>
+      <c r="L20">
+        <v>-0.56699999999999995</v>
+      </c>
+      <c r="M20">
         <v>-0.22600000000000001</v>
       </c>
-      <c r="J20">
+      <c r="N20">
         <v>-0.22900000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>-0.10199999999999999</v>
       </c>
@@ -7412,16 +9580,28 @@
         <v>-0.58699999999999997</v>
       </c>
       <c r="H21">
+        <v>-0.58899999999999997</v>
+      </c>
+      <c r="I21">
         <v>-0.59</v>
       </c>
-      <c r="I21">
+      <c r="J21">
+        <v>-0.58599999999999997</v>
+      </c>
+      <c r="K21">
+        <v>-0.58899999999999997</v>
+      </c>
+      <c r="L21">
+        <v>-0.56799999999999995</v>
+      </c>
+      <c r="M21">
         <v>-0.22800000000000001</v>
       </c>
-      <c r="J21">
+      <c r="N21">
         <v>-0.23100000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -7441,16 +9621,28 @@
         <v>-0.58899999999999997</v>
       </c>
       <c r="H22">
+        <v>-0.59099999999999997</v>
+      </c>
+      <c r="I22">
         <v>-0.59199999999999997</v>
       </c>
-      <c r="I22">
+      <c r="J22">
+        <v>-0.58899999999999997</v>
+      </c>
+      <c r="K22">
+        <v>-0.59099999999999997</v>
+      </c>
+      <c r="L22">
+        <v>-0.56899999999999995</v>
+      </c>
+      <c r="M22">
         <v>-0.23</v>
       </c>
-      <c r="J22">
+      <c r="N22">
         <v>-0.23200000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>-0.10199999999999999</v>
       </c>
@@ -7470,16 +9662,28 @@
         <v>-0.59099999999999997</v>
       </c>
       <c r="H23">
+        <v>-0.59299999999999997</v>
+      </c>
+      <c r="I23">
         <v>-0.59499999999999997</v>
       </c>
-      <c r="I23">
+      <c r="J23">
+        <v>-0.59099999999999997</v>
+      </c>
+      <c r="K23">
+        <v>-0.59299999999999997</v>
+      </c>
+      <c r="L23">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="M23">
         <v>-0.23200000000000001</v>
       </c>
-      <c r="J23">
+      <c r="N23">
         <v>-0.23400000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>-9.6000000000000002E-2</v>
       </c>
@@ -7499,16 +9703,28 @@
         <v>-0.59299999999999997</v>
       </c>
       <c r="H24">
+        <v>-0.59599999999999997</v>
+      </c>
+      <c r="I24">
         <v>-0.59699999999999998</v>
       </c>
-      <c r="I24">
+      <c r="J24">
+        <v>-0.59299999999999997</v>
+      </c>
+      <c r="K24">
+        <v>-0.59599999999999997</v>
+      </c>
+      <c r="L24">
+        <v>-0.57099999999999995</v>
+      </c>
+      <c r="M24">
         <v>-0.23300000000000001</v>
       </c>
-      <c r="J24">
+      <c r="N24">
         <v>-0.23599999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>-0.112</v>
       </c>
@@ -7531,13 +9747,25 @@
         <v>-0.59799999999999998</v>
       </c>
       <c r="I25">
+        <v>-0.59799999999999998</v>
+      </c>
+      <c r="J25">
+        <v>-0.59599999999999997</v>
+      </c>
+      <c r="K25">
+        <v>-0.59799999999999998</v>
+      </c>
+      <c r="L25">
+        <v>-0.57199999999999995</v>
+      </c>
+      <c r="M25">
         <v>-0.23499999999999999</v>
       </c>
-      <c r="J25">
+      <c r="N25">
         <v>-0.23799999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>-0.112</v>
       </c>
@@ -7557,16 +9785,28 @@
         <v>-0.59699999999999998</v>
       </c>
       <c r="H26">
+        <v>-0.59899999999999998</v>
+      </c>
+      <c r="I26">
         <v>-0.6</v>
       </c>
-      <c r="I26">
+      <c r="J26">
+        <v>-0.59799999999999998</v>
+      </c>
+      <c r="K26">
+        <v>-0.59799999999999998</v>
+      </c>
+      <c r="L26">
+        <v>-0.57199999999999995</v>
+      </c>
+      <c r="M26">
         <v>-0.24099999999999999</v>
       </c>
-      <c r="J26">
+      <c r="N26">
         <v>-0.251</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>-0.112</v>
       </c>
@@ -7586,16 +9826,28 @@
         <v>-0.6</v>
       </c>
       <c r="H27">
+        <v>-0.60099999999999998</v>
+      </c>
+      <c r="I27">
         <v>-0.60299999999999998</v>
       </c>
-      <c r="I27">
+      <c r="J27">
+        <v>-0.59799999999999998</v>
+      </c>
+      <c r="K27">
+        <v>-0.60099999999999998</v>
+      </c>
+      <c r="L27">
+        <v>-0.57299999999999995</v>
+      </c>
+      <c r="M27">
         <v>-0.24399999999999999</v>
       </c>
-      <c r="J27">
+      <c r="N27">
         <v>-0.254</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>-9.6000000000000002E-2</v>
       </c>
@@ -7615,16 +9867,28 @@
         <v>-0.60099999999999998</v>
       </c>
       <c r="H28">
+        <v>-0.60299999999999998</v>
+      </c>
+      <c r="I28">
         <v>-0.60499999999999998</v>
       </c>
-      <c r="I28">
+      <c r="J28">
+        <v>-0.60099999999999998</v>
+      </c>
+      <c r="K28">
+        <v>-0.60499999999999998</v>
+      </c>
+      <c r="L28">
+        <v>-0.57399999999999995</v>
+      </c>
+      <c r="M28">
         <v>-0.245</v>
       </c>
-      <c r="J28">
+      <c r="N28">
         <v>-0.24399999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>-9.6000000000000002E-2</v>
       </c>
@@ -7647,13 +9911,25 @@
         <v>-0.60499999999999998</v>
       </c>
       <c r="I29">
+        <v>-0.60499999999999998</v>
+      </c>
+      <c r="J29">
+        <v>-0.60499999999999998</v>
+      </c>
+      <c r="K29">
+        <v>-0.60499999999999998</v>
+      </c>
+      <c r="L29">
+        <v>-0.57399999999999995</v>
+      </c>
+      <c r="M29">
         <v>-0.248</v>
       </c>
-      <c r="J29">
+      <c r="N29">
         <v>-0.246</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>-9.0999999999999998E-2</v>
       </c>
@@ -7673,16 +9949,28 @@
         <v>-0.60499999999999998</v>
       </c>
       <c r="H30">
+        <v>-0.60599999999999998</v>
+      </c>
+      <c r="I30">
         <v>-0.60699999999999998</v>
       </c>
-      <c r="I30">
+      <c r="J30">
+        <v>-0.60499999999999998</v>
+      </c>
+      <c r="K30">
+        <v>-0.60599999999999998</v>
+      </c>
+      <c r="L30">
+        <v>-0.57599999999999996</v>
+      </c>
+      <c r="M30">
         <v>-0.25</v>
       </c>
-      <c r="J30">
+      <c r="N30">
         <v>-0.248</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>-6.5000000000000002E-2</v>
       </c>
@@ -7702,16 +9990,28 @@
         <v>-0.60699999999999998</v>
       </c>
       <c r="H31">
+        <v>-0.60799999999999998</v>
+      </c>
+      <c r="I31">
         <v>-0.60899999999999999</v>
       </c>
-      <c r="I31">
+      <c r="J31">
+        <v>-0.60599999999999998</v>
+      </c>
+      <c r="K31">
+        <v>-0.60799999999999998</v>
+      </c>
+      <c r="L31">
+        <v>-0.57599999999999996</v>
+      </c>
+      <c r="M31">
         <v>-0.247</v>
       </c>
-      <c r="J31">
+      <c r="N31">
         <v>-0.249</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>-8.3000000000000004E-2</v>
       </c>
@@ -7731,16 +10031,28 @@
         <v>-0.60799999999999998</v>
       </c>
       <c r="H32">
+        <v>-0.61</v>
+      </c>
+      <c r="I32">
         <v>-0.61099999999999999</v>
       </c>
-      <c r="I32">
+      <c r="J32">
+        <v>-0.60799999999999998</v>
+      </c>
+      <c r="K32">
+        <v>-0.61099999999999999</v>
+      </c>
+      <c r="L32">
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="M32">
         <v>-0.251</v>
       </c>
-      <c r="J32">
+      <c r="N32">
         <v>-0.25600000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>-8.8999999999999996E-2</v>
       </c>
@@ -7760,16 +10072,28 @@
         <v>-0.61099999999999999</v>
       </c>
       <c r="H33">
+        <v>-0.61299999999999999</v>
+      </c>
+      <c r="I33">
         <v>-0.61399999999999999</v>
       </c>
-      <c r="I33">
+      <c r="J33">
+        <v>-0.61099999999999999</v>
+      </c>
+      <c r="K33">
+        <v>-0.61099999999999999</v>
+      </c>
+      <c r="L33">
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="M33">
         <v>-0.254</v>
       </c>
-      <c r="J33">
+      <c r="N33">
         <v>-0.26200000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>-0.1</v>
       </c>
@@ -7789,16 +10113,28 @@
         <v>-0.61399999999999999</v>
       </c>
       <c r="H34">
+        <v>-0.61699999999999999</v>
+      </c>
+      <c r="I34">
         <v>-0.62</v>
       </c>
-      <c r="I34">
+      <c r="J34">
+        <v>-0.61099999999999999</v>
+      </c>
+      <c r="K34">
+        <v>-0.61599999999999999</v>
+      </c>
+      <c r="L34">
+        <v>-0.57799999999999996</v>
+      </c>
+      <c r="M34">
         <v>-0.25700000000000001</v>
       </c>
-      <c r="J34">
+      <c r="N34">
         <v>-0.26200000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>-0.1</v>
       </c>
@@ -7818,16 +10154,28 @@
         <v>-0.61699999999999999</v>
       </c>
       <c r="H35">
+        <v>-0.621</v>
+      </c>
+      <c r="I35">
         <v>-0.624</v>
       </c>
-      <c r="I35">
+      <c r="J35">
+        <v>-0.61599999999999999</v>
+      </c>
+      <c r="K35">
+        <v>-0.623</v>
+      </c>
+      <c r="L35">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="M35">
         <v>-0.249</v>
       </c>
-      <c r="J35">
+      <c r="N35">
         <v>-0.23599999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>-9.9000000000000005E-2</v>
       </c>
@@ -7847,16 +10195,28 @@
         <v>-0.621</v>
       </c>
       <c r="H36">
+        <v>-0.625</v>
+      </c>
+      <c r="I36">
         <v>-0.626</v>
       </c>
-      <c r="I36">
+      <c r="J36">
+        <v>-0.623</v>
+      </c>
+      <c r="K36">
+        <v>-0.624</v>
+      </c>
+      <c r="L36">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="M36">
         <v>-0.24099999999999999</v>
       </c>
-      <c r="J36">
+      <c r="N36">
         <v>-0.20899999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>-9.9000000000000005E-2</v>
       </c>
@@ -7876,16 +10236,28 @@
         <v>-0.624</v>
       </c>
       <c r="H37">
+        <v>-0.626</v>
+      </c>
+      <c r="I37">
         <v>-0.628</v>
       </c>
-      <c r="I37">
+      <c r="J37">
+        <v>-0.624</v>
+      </c>
+      <c r="K37">
+        <v>-0.628</v>
+      </c>
+      <c r="L37">
+        <v>-0.58099999999999996</v>
+      </c>
+      <c r="M37">
         <v>-0.23</v>
       </c>
-      <c r="J37">
+      <c r="N37">
         <v>-0.20899999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>-8.7999999999999995E-2</v>
       </c>
@@ -7908,13 +10280,25 @@
         <v>-0.63</v>
       </c>
       <c r="I38">
+        <v>-0.63</v>
+      </c>
+      <c r="J38">
+        <v>-0.628</v>
+      </c>
+      <c r="K38">
+        <v>-0.628</v>
+      </c>
+      <c r="L38">
+        <v>-0.58199999999999996</v>
+      </c>
+      <c r="M38">
         <v>-0.221</v>
       </c>
-      <c r="J38">
+      <c r="N38">
         <v>-0.21199999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>-8.7999999999999995E-2</v>
       </c>
@@ -7934,16 +10318,28 @@
         <v>-0.629</v>
       </c>
       <c r="H39">
+        <v>-0.63100000000000001</v>
+      </c>
+      <c r="I39">
         <v>-0.63300000000000001</v>
       </c>
-      <c r="I39">
+      <c r="J39">
+        <v>-0.628</v>
+      </c>
+      <c r="K39">
+        <v>-0.63300000000000001</v>
+      </c>
+      <c r="L39">
+        <v>-0.58199999999999996</v>
+      </c>
+      <c r="M39">
         <v>-0.21199999999999999</v>
       </c>
-      <c r="J39">
+      <c r="N39">
         <v>-0.216</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>-9.9000000000000005E-2</v>
       </c>
@@ -7963,16 +10359,28 @@
         <v>-0.63</v>
       </c>
       <c r="H40">
+        <v>-0.63200000000000001</v>
+      </c>
+      <c r="I40">
         <v>-0.63100000000000001</v>
       </c>
-      <c r="I40">
+      <c r="J40">
+        <v>-0.629</v>
+      </c>
+      <c r="K40">
+        <v>-0.63300000000000001</v>
+      </c>
+      <c r="L40">
+        <v>-0.58299999999999996</v>
+      </c>
+      <c r="M40">
         <v>-0.21299999999999999</v>
       </c>
-      <c r="J40">
+      <c r="N40">
         <v>-0.217</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>-8.8999999999999996E-2</v>
       </c>
@@ -7992,16 +10400,28 @@
         <v>-0.63100000000000001</v>
       </c>
       <c r="H41">
+        <v>-0.63100000000000001</v>
+      </c>
+      <c r="I41">
         <v>-0.629</v>
       </c>
-      <c r="I41">
+      <c r="J41">
+        <v>-0.629</v>
+      </c>
+      <c r="K41">
+        <v>-0.629</v>
+      </c>
+      <c r="L41">
+        <v>-0.58299999999999996</v>
+      </c>
+      <c r="M41">
         <v>-0.217</v>
       </c>
-      <c r="J41">
+      <c r="N41">
         <v>-0.222</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>-8.8999999999999996E-2</v>
       </c>
@@ -8021,16 +10441,28 @@
         <v>-0.63100000000000001</v>
       </c>
       <c r="H42">
+        <v>-0.63</v>
+      </c>
+      <c r="I42">
         <v>-0.63100000000000001</v>
       </c>
-      <c r="I42">
+      <c r="J42">
+        <v>-0.63200000000000001</v>
+      </c>
+      <c r="K42">
+        <v>-0.629</v>
+      </c>
+      <c r="L42">
+        <v>-0.58399999999999996</v>
+      </c>
+      <c r="M42">
         <v>-0.221</v>
       </c>
-      <c r="J42">
+      <c r="N42">
         <v>-0.22700000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>-9.9000000000000005E-2</v>
       </c>
@@ -8053,13 +10485,25 @@
         <v>-0.63</v>
       </c>
       <c r="I43">
+        <v>-0.63</v>
+      </c>
+      <c r="J43">
+        <v>-0.629</v>
+      </c>
+      <c r="K43">
+        <v>-0.629</v>
+      </c>
+      <c r="L43">
+        <v>-0.58499999999999996</v>
+      </c>
+      <c r="M43">
         <v>-0.22500000000000001</v>
       </c>
-      <c r="J43">
+      <c r="N43">
         <v>-0.23300000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>-6.5000000000000002E-2</v>
       </c>
@@ -8082,13 +10526,25 @@
         <v>-0.63200000000000001</v>
       </c>
       <c r="I44">
+        <v>-0.63200000000000001</v>
+      </c>
+      <c r="J44">
+        <v>-0.629</v>
+      </c>
+      <c r="K44">
+        <v>-0.63200000000000001</v>
+      </c>
+      <c r="L44">
+        <v>-0.58499999999999996</v>
+      </c>
+      <c r="M44">
         <v>-0.22800000000000001</v>
       </c>
-      <c r="J44">
+      <c r="N44">
         <v>-0.23599999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>-6.5000000000000002E-2</v>
       </c>
@@ -8108,16 +10564,28 @@
         <v>-0.63300000000000001</v>
       </c>
       <c r="H45">
+        <v>-0.63400000000000001</v>
+      </c>
+      <c r="I45">
         <v>-0.63700000000000001</v>
       </c>
-      <c r="I45">
+      <c r="J45">
+        <v>-0.63200000000000001</v>
+      </c>
+      <c r="K45">
+        <v>-0.63600000000000001</v>
+      </c>
+      <c r="L45">
+        <v>-0.58699999999999997</v>
+      </c>
+      <c r="M45">
         <v>-0.23200000000000001</v>
       </c>
-      <c r="J45">
+      <c r="N45">
         <v>-0.23200000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>-6.4000000000000001E-2</v>
       </c>
@@ -8137,16 +10605,28 @@
         <v>-0.63600000000000001</v>
       </c>
       <c r="H46">
+        <v>-0.64</v>
+      </c>
+      <c r="I46">
         <v>-0.64200000000000002</v>
       </c>
-      <c r="I46">
+      <c r="J46">
+        <v>-0.63600000000000001</v>
+      </c>
+      <c r="K46">
+        <v>-0.63900000000000001</v>
+      </c>
+      <c r="L46">
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="M46">
         <v>-0.23300000000000001</v>
       </c>
-      <c r="J46">
+      <c r="N46">
         <v>-0.23300000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>-6.4000000000000001E-2</v>
       </c>
@@ -8166,16 +10646,28 @@
         <v>-0.63900000000000001</v>
       </c>
       <c r="H47">
+        <v>-0.64300000000000002</v>
+      </c>
+      <c r="I47">
         <v>-0.64600000000000002</v>
       </c>
-      <c r="I47">
+      <c r="J47">
+        <v>-0.63900000000000001</v>
+      </c>
+      <c r="K47">
+        <v>-0.64500000000000002</v>
+      </c>
+      <c r="L47">
+        <v>-0.58699999999999997</v>
+      </c>
+      <c r="M47">
         <v>-0.23400000000000001</v>
       </c>
-      <c r="J47">
+      <c r="N47">
         <v>-0.23200000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -8195,16 +10687,28 @@
         <v>-0.64300000000000002</v>
       </c>
       <c r="H48">
+        <v>-0.64800000000000002</v>
+      </c>
+      <c r="I48">
         <v>-0.64900000000000002</v>
       </c>
-      <c r="I48">
+      <c r="J48">
+        <v>-0.64500000000000002</v>
+      </c>
+      <c r="K48">
+        <v>-0.64700000000000002</v>
+      </c>
+      <c r="L48">
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="M48">
         <v>-0.23200000000000001</v>
       </c>
-      <c r="J48">
+      <c r="N48">
         <v>-0.23200000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>-6.4000000000000001E-2</v>
       </c>
@@ -8224,16 +10728,28 @@
         <v>-0.64700000000000002</v>
       </c>
       <c r="H49">
+        <v>-0.65</v>
+      </c>
+      <c r="I49">
         <v>-0.65100000000000002</v>
       </c>
-      <c r="I49">
+      <c r="J49">
+        <v>-0.64700000000000002</v>
+      </c>
+      <c r="K49">
+        <v>-0.65100000000000002</v>
+      </c>
+      <c r="L49">
+        <v>-0.58899999999999997</v>
+      </c>
+      <c r="M49">
         <v>-0.23300000000000001</v>
       </c>
-      <c r="J49">
+      <c r="N49">
         <v>-0.23400000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>-6.4000000000000001E-2</v>
       </c>
@@ -8253,16 +10769,28 @@
         <v>-0.65</v>
       </c>
       <c r="H50">
+        <v>-0.65200000000000002</v>
+      </c>
+      <c r="I50">
         <v>-0.65300000000000002</v>
       </c>
-      <c r="I50">
+      <c r="J50">
+        <v>-0.65100000000000002</v>
+      </c>
+      <c r="K50">
+        <v>-0.65200000000000002</v>
+      </c>
+      <c r="L50">
+        <v>-0.59099999999999997</v>
+      </c>
+      <c r="M50">
         <v>-0.23400000000000001</v>
       </c>
-      <c r="J50">
+      <c r="N50">
         <v>-0.23499999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>-5.7000000000000002E-2</v>
       </c>
@@ -8285,13 +10813,25 @@
         <v>-0.65100000000000002</v>
       </c>
       <c r="I51">
+        <v>-0.65100000000000002</v>
+      </c>
+      <c r="J51">
+        <v>-0.65100000000000002</v>
+      </c>
+      <c r="K51">
+        <v>-0.65200000000000002</v>
+      </c>
+      <c r="L51">
+        <v>-0.59099999999999997</v>
+      </c>
+      <c r="M51">
         <v>-0.23499999999999999</v>
       </c>
-      <c r="J51">
+      <c r="N51">
         <v>-0.23799999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>-7.4999999999999997E-2</v>
       </c>
@@ -8311,16 +10851,28 @@
         <v>-0.65100000000000002</v>
       </c>
       <c r="H52">
+        <v>-0.65100000000000002</v>
+      </c>
+      <c r="I52">
         <v>-0.65</v>
       </c>
-      <c r="I52">
+      <c r="J52">
+        <v>-0.65100000000000002</v>
+      </c>
+      <c r="K52">
+        <v>-0.65100000000000002</v>
+      </c>
+      <c r="L52">
+        <v>-0.59199999999999997</v>
+      </c>
+      <c r="M52">
         <v>-0.23699999999999999</v>
       </c>
-      <c r="J52">
+      <c r="N52">
         <v>-0.23899999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>-6.4000000000000001E-2</v>
       </c>
@@ -8340,16 +10892,28 @@
         <v>-0.65100000000000002</v>
       </c>
       <c r="H53">
+        <v>-0.65</v>
+      </c>
+      <c r="I53">
         <v>-0.65100000000000002</v>
       </c>
-      <c r="I53">
+      <c r="J53">
+        <v>-0.65100000000000002</v>
+      </c>
+      <c r="K53">
+        <v>-0.65100000000000002</v>
+      </c>
+      <c r="L53">
+        <v>-0.59299999999999997</v>
+      </c>
+      <c r="M53">
         <v>-0.23899999999999999</v>
       </c>
-      <c r="J53">
+      <c r="N53">
         <v>-0.24299999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>-6.4000000000000001E-2</v>
       </c>
@@ -8372,13 +10936,25 @@
         <v>-0.65100000000000002</v>
       </c>
       <c r="I54">
+        <v>-0.65100000000000002</v>
+      </c>
+      <c r="J54">
+        <v>-0.65100000000000002</v>
+      </c>
+      <c r="K54">
+        <v>-0.65100000000000002</v>
+      </c>
+      <c r="L54">
+        <v>-0.59899999999999998</v>
+      </c>
+      <c r="M54">
         <v>-0.24099999999999999</v>
       </c>
-      <c r="J54">
+      <c r="N54">
         <v>-0.246</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>-6.3E-2</v>
       </c>
@@ -8398,16 +10974,28 @@
         <v>-0.65100000000000002</v>
       </c>
       <c r="H55">
+        <v>-0.65100000000000002</v>
+      </c>
+      <c r="I55">
         <v>-0.65200000000000002</v>
       </c>
-      <c r="I55">
+      <c r="J55">
+        <v>-0.65100000000000002</v>
+      </c>
+      <c r="K55">
+        <v>-0.65200000000000002</v>
+      </c>
+      <c r="L55">
+        <v>-0.59899999999999998</v>
+      </c>
+      <c r="M55">
         <v>-0.245</v>
       </c>
-      <c r="J55">
+      <c r="N55">
         <v>-0.248</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>-3.1E-2</v>
       </c>
@@ -8427,16 +11015,28 @@
         <v>-0.65200000000000002</v>
       </c>
       <c r="H56">
+        <v>-0.65400000000000003</v>
+      </c>
+      <c r="I56">
         <v>-0.65500000000000003</v>
       </c>
-      <c r="I56">
+      <c r="J56">
+        <v>-0.65200000000000002</v>
+      </c>
+      <c r="K56">
+        <v>-0.65200000000000002</v>
+      </c>
+      <c r="L56">
+        <v>-0.61599999999999999</v>
+      </c>
+      <c r="M56">
         <v>-0.247</v>
       </c>
-      <c r="J56">
+      <c r="N56">
         <v>-0.251</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>-6.7000000000000004E-2</v>
       </c>
@@ -8456,13 +11056,455 @@
         <v>-0.65700000000000003</v>
       </c>
       <c r="H57">
+        <v>-0.66100000000000003</v>
+      </c>
+      <c r="I57">
         <v>-0.66600000000000004</v>
       </c>
-      <c r="I57">
+      <c r="J57">
+        <v>-0.65200000000000002</v>
+      </c>
+      <c r="K57">
+        <v>-0.65800000000000003</v>
+      </c>
+      <c r="L57">
+        <v>-0.60199999999999998</v>
+      </c>
+      <c r="M57">
         <v>-0.249</v>
       </c>
-      <c r="J57">
+      <c r="N57">
         <v>-0.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <v>-0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <v>-0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <v>-0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <v>-0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <v>-0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <v>-0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <v>-0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <v>-0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <v>-0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>-0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <v>-0.60399999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <v>-0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <v>-0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <v>-0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <v>-0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L73">
+        <v>-0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L74">
+        <v>-0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L75">
+        <v>-0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="77" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L77">
+        <v>-0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L78">
+        <v>-0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L79">
+        <v>-0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <v>-0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <v>-0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L82">
+        <v>-0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L83">
+        <v>-0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L84">
+        <v>-0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L85">
+        <v>-0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L86">
+        <v>-0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L87">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="88" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L88">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="89" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L89">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="90" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L90">
+        <v>-0.621</v>
+      </c>
+    </row>
+    <row r="91" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L91">
+        <v>-0.627</v>
+      </c>
+    </row>
+    <row r="92" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L92">
+        <v>-0.627</v>
+      </c>
+    </row>
+    <row r="93" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L93">
+        <v>-0.629</v>
+      </c>
+    </row>
+    <row r="94" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L94">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="95" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L95">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="96" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L96">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="97" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L97">
+        <v>-0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L98">
+        <v>-0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L99">
+        <v>-0.628</v>
+      </c>
+    </row>
+    <row r="100" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L100">
+        <v>-0.628</v>
+      </c>
+    </row>
+    <row r="101" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L101">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="102" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L102">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="103" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L103">
+        <v>-0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L104">
+        <v>-0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L105">
+        <v>-0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L106">
+        <v>-0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L107">
+        <v>-0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L108">
+        <v>-0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L109">
+        <v>-0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L110">
+        <v>-0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L111">
+        <v>-0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L112">
+        <v>-0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L113">
+        <v>-0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L114">
+        <v>-0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L115">
+        <v>-0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L116">
+        <v>-0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L117">
+        <v>-0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L118">
+        <v>-0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L119">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="120" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L120">
+        <v>-0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L121">
+        <v>-0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L122">
+        <v>-0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L123">
+        <v>-0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L124">
+        <v>-0.64700000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L125">
+        <v>-0.64700000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L126">
+        <v>-0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L127">
+        <v>-0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L128">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="129" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L129">
+        <v>-0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L130">
+        <v>-0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L131">
+        <v>-0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L132">
+        <v>-0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L133">
+        <v>-0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L134">
+        <v>-0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="135" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L135">
+        <v>-0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L136">
+        <v>-0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="137" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L137">
+        <v>-0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L138">
+        <v>-0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L139">
+        <v>-0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="140" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L140">
+        <v>-0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L141">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="142" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L142">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="143" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L143">
+        <v>-0.64700000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -8519,8 +11561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE60" sqref="AE60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8534,8 +11576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
